--- a/medicine/Sexualité et sexologie/Désirella/Désirella.xlsx
+++ b/medicine/Sexualité et sexologie/Désirella/Désirella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9sirella</t>
+          <t>Désirella</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Désirella est un film érotique français tourné en 1969 par Jean-Claude Dague.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9sirella</t>
+          <t>Désirella</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Titre : Désirella
 Autre titre : Les Chattes (titre alternatif pour l'exploitation provinciale)
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9sirella</t>
+          <t>Désirella</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Claude Bouillon : Patrick Vernier, un aventurier de charme
 Sabine Sun : Désirella, un mannequin très prisé, qui a une relation lesbienne avec Nicole
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9sirella</t>
+          <t>Désirella</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,9 +608,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est tourné dans les Pyrénées-Orientales, essentiellement à Banyuls-sur-Mer et à Port-Vendres, du 10 novembre 1969 au 12 décembre 1969[1]. La tentative de recruter sur place l'actrice pour le rôle-titre est un échec en raison du scénario annoncé, malgré un appel lancé dans le quotidien L'Indépendant. Celui-ci est alors attribué à Sabine Sun, actrice déjà rompue à divers genres de films[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est tourné dans les Pyrénées-Orientales, essentiellement à Banyuls-sur-Mer et à Port-Vendres, du 10 novembre 1969 au 12 décembre 1969. La tentative de recruter sur place l'actrice pour le rôle-titre est un échec en raison du scénario annoncé, malgré un appel lancé dans le quotidien L'Indépendant. Celui-ci est alors attribué à Sabine Sun, actrice déjà rompue à divers genres de films.
 </t>
         </is>
       </c>
